--- a/Code/Results/Cases/Case_8_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7561040310621649</v>
+        <v>0.7259683222332853</v>
       </c>
       <c r="C2">
-        <v>0.1602952190668248</v>
+        <v>0.1809348227351677</v>
       </c>
       <c r="D2">
-        <v>0.07032973100763229</v>
+        <v>0.07125945602252415</v>
       </c>
       <c r="E2">
-        <v>0.366543482852137</v>
+        <v>0.3726005129992629</v>
       </c>
       <c r="F2">
-        <v>0.5122935230359289</v>
+        <v>0.4710973107442911</v>
       </c>
       <c r="G2">
-        <v>0.0008087262752657518</v>
+        <v>0.004028454252214431</v>
       </c>
       <c r="H2">
-        <v>6.38569998825389E-05</v>
+        <v>0.0001894780429232412</v>
       </c>
       <c r="I2">
-        <v>0.0004435099326864922</v>
+        <v>0.0007143429322065131</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3188970877401225</v>
+        <v>0.2806855207675234</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1526737795076514</v>
       </c>
       <c r="M2">
-        <v>0.857636074374426</v>
+        <v>0.06822731035304663</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5849167228764287</v>
+        <v>0.866603886538627</v>
       </c>
       <c r="P2">
-        <v>0.8247451923524269</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.54168250150974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5863763364729806</v>
+      </c>
+      <c r="R2">
+        <v>0.7822558321077695</v>
+      </c>
+      <c r="S2">
+        <v>1.39015691123798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6583865964583708</v>
+        <v>0.6365041997851506</v>
       </c>
       <c r="C3">
-        <v>0.1421288200011475</v>
+        <v>0.1584752901567725</v>
       </c>
       <c r="D3">
-        <v>0.06329302558877004</v>
+        <v>0.06331114077687516</v>
       </c>
       <c r="E3">
-        <v>0.3223684466519643</v>
+        <v>0.3290205921037455</v>
       </c>
       <c r="F3">
-        <v>0.4846219015739308</v>
+        <v>0.445391203450491</v>
       </c>
       <c r="G3">
-        <v>0.0008113530101620581</v>
+        <v>0.005720411048124402</v>
       </c>
       <c r="H3">
-        <v>2.069066745336023E-05</v>
+        <v>4.075482163523603E-06</v>
       </c>
       <c r="I3">
-        <v>0.0005494050596612787</v>
+        <v>0.0005221897294815925</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3161338498970707</v>
+        <v>0.2791375968039453</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1565585611316926</v>
       </c>
       <c r="M3">
-        <v>0.7484138706292214</v>
+        <v>0.06456491648523333</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5096863086851471</v>
+        <v>0.7583303040112952</v>
       </c>
       <c r="P3">
-        <v>0.8523916137729459</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.491489126851221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5112202346563564</v>
+      </c>
+      <c r="R3">
+        <v>0.8056737072364943</v>
+      </c>
+      <c r="S3">
+        <v>1.344053581918956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5980524586873059</v>
+        <v>0.5810707598168108</v>
       </c>
       <c r="C4">
-        <v>0.1311010790669371</v>
+        <v>0.1448904316615653</v>
       </c>
       <c r="D4">
-        <v>0.05896797453745251</v>
+        <v>0.05843963716556289</v>
       </c>
       <c r="E4">
-        <v>0.2952262193854196</v>
+        <v>0.3022327308876598</v>
       </c>
       <c r="F4">
-        <v>0.4680316671534683</v>
+        <v>0.4298144973023028</v>
       </c>
       <c r="G4">
-        <v>0.0008130243200312906</v>
+        <v>0.006949919597254717</v>
       </c>
       <c r="H4">
-        <v>0.0001571782773748254</v>
+        <v>2.990409359071577E-05</v>
       </c>
       <c r="I4">
-        <v>0.00077038056890677</v>
+        <v>0.0005175800390722074</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.314606034913492</v>
+        <v>0.2782386259409826</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1590058814904403</v>
       </c>
       <c r="M4">
-        <v>0.6812568079766805</v>
+        <v>0.0627969551723222</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4634920418329926</v>
+        <v>0.6916822031446799</v>
       </c>
       <c r="P4">
-        <v>0.8698806017326967</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.461799742295213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4650467221172718</v>
+      </c>
+      <c r="R4">
+        <v>0.8204983397367536</v>
+      </c>
+      <c r="S4">
+        <v>1.316237744924393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5727646654592888</v>
+        <v>0.5577544979996958</v>
       </c>
       <c r="C5">
-        <v>0.1269548828114608</v>
+        <v>0.1397459814771906</v>
       </c>
       <c r="D5">
-        <v>0.05725372143945151</v>
+        <v>0.05650744647554973</v>
       </c>
       <c r="E5">
-        <v>0.2841521502903674</v>
+        <v>0.2913012339754033</v>
       </c>
       <c r="F5">
-        <v>0.4609747014705619</v>
+        <v>0.4231330974498775</v>
       </c>
       <c r="G5">
-        <v>0.0008137247986467009</v>
+        <v>0.007500659826387424</v>
       </c>
       <c r="H5">
-        <v>0.0002520456884298472</v>
+        <v>7.393256346799326E-05</v>
       </c>
       <c r="I5">
-        <v>0.0009667257856054157</v>
+        <v>0.000621976998811391</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3137041274965249</v>
+        <v>0.2775837124416825</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1598645567739148</v>
       </c>
       <c r="M5">
-        <v>0.653831940583899</v>
+        <v>0.06212353853384123</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4446552829851314</v>
+        <v>0.6644491669106429</v>
       </c>
       <c r="P5">
-        <v>0.8770155368902186</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.448697985248955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4462131142236316</v>
+      </c>
+      <c r="R5">
+        <v>0.8265593079254465</v>
+      </c>
+      <c r="S5">
+        <v>1.303784293163389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5678069495700129</v>
+        <v>0.5531403114688658</v>
       </c>
       <c r="C6">
-        <v>0.1266596466121541</v>
+        <v>0.1393156734811356</v>
       </c>
       <c r="D6">
-        <v>0.05703005624492619</v>
+        <v>0.05624957287960797</v>
       </c>
       <c r="E6">
-        <v>0.2823058728261074</v>
+        <v>0.2894791108036259</v>
       </c>
       <c r="F6">
-        <v>0.4593294604916025</v>
+        <v>0.4215593210628796</v>
       </c>
       <c r="G6">
-        <v>0.0008138475407321546</v>
+        <v>0.007599458176531626</v>
       </c>
       <c r="H6">
-        <v>0.0002705053494764798</v>
+        <v>8.341657708443861E-05</v>
       </c>
       <c r="I6">
-        <v>0.001093099968252353</v>
+        <v>0.0007464565440677973</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3131656511343586</v>
+        <v>0.2771087101220573</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1598204313697025</v>
       </c>
       <c r="M6">
-        <v>0.6492402446286007</v>
+        <v>0.06192861782926151</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4415178480421957</v>
+        <v>0.6598897856861328</v>
       </c>
       <c r="P6">
-        <v>0.8780649842035819</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.444981128551888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4430761450916378</v>
+      </c>
+      <c r="R6">
+        <v>0.8274645261635332</v>
+      </c>
+      <c r="S6">
+        <v>1.300216031739339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5956463198401707</v>
+        <v>0.5776657682001485</v>
       </c>
       <c r="C7">
-        <v>0.1321165014501844</v>
+        <v>0.1450445914068439</v>
       </c>
       <c r="D7">
-        <v>0.05911234810847077</v>
+        <v>0.05892783561704817</v>
       </c>
       <c r="E7">
-        <v>0.2950582664404422</v>
+        <v>0.302294925535314</v>
       </c>
       <c r="F7">
-        <v>0.4666273498675082</v>
+        <v>0.4259662015635968</v>
       </c>
       <c r="G7">
-        <v>0.0008130485204892878</v>
+        <v>0.007266036048923619</v>
       </c>
       <c r="H7">
-        <v>0.0001591283084412254</v>
+        <v>3.132992990084738E-05</v>
       </c>
       <c r="I7">
-        <v>0.001007575256451787</v>
+        <v>0.0007901108906658294</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3135259734049463</v>
+        <v>0.2760681388958588</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1579443768790334</v>
       </c>
       <c r="M7">
-        <v>0.6807881206134994</v>
+        <v>0.0622238052210573</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4632126148305886</v>
+        <v>0.688962575016788</v>
       </c>
       <c r="P7">
-        <v>0.8695975508109057</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.457369780162864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4642454312126034</v>
+      </c>
+      <c r="R7">
+        <v>0.8199152855447833</v>
+      </c>
+      <c r="S7">
+        <v>1.303977652474998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7197180796277962</v>
+        <v>0.6889294481968875</v>
       </c>
       <c r="C8">
-        <v>0.1554339639758382</v>
+        <v>0.1715521404711211</v>
       </c>
       <c r="D8">
-        <v>0.06812862649629636</v>
+        <v>0.06991058190046573</v>
       </c>
       <c r="E8">
-        <v>0.3512898639775699</v>
+        <v>0.3583242681820806</v>
       </c>
       <c r="F8">
-        <v>0.5009337917006604</v>
+        <v>0.452308041427635</v>
       </c>
       <c r="G8">
-        <v>0.0008096383543476362</v>
+        <v>0.006272987723405343</v>
       </c>
       <c r="H8">
-        <v>1.358522118621863E-05</v>
+        <v>9.129598861901123E-05</v>
       </c>
       <c r="I8">
-        <v>0.0007275671934827699</v>
+        <v>0.000945421827376336</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3165007188339395</v>
+        <v>0.2750555894407789</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1516972823994749</v>
       </c>
       <c r="M8">
-        <v>0.81985867275651</v>
+        <v>0.06531839867432865</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5589403816184415</v>
+        <v>0.821596010031783</v>
       </c>
       <c r="P8">
-        <v>0.8337197323774057</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.518516568804287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5586746760234149</v>
+      </c>
+      <c r="R8">
+        <v>0.7889826187148028</v>
+      </c>
+      <c r="S8">
+        <v>1.34251877649055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9641732127842317</v>
+        <v>0.9106655181953442</v>
       </c>
       <c r="C9">
-        <v>0.2003717244493544</v>
+        <v>0.226552628652172</v>
       </c>
       <c r="D9">
-        <v>0.08549186732347636</v>
+        <v>0.089977320787888</v>
       </c>
       <c r="E9">
-        <v>0.4615933616642565</v>
+        <v>0.4672910101139465</v>
       </c>
       <c r="F9">
-        <v>0.5739803336470999</v>
+        <v>0.5170208258192375</v>
       </c>
       <c r="G9">
-        <v>0.0008033827639164269</v>
+        <v>0.003379708636510159</v>
       </c>
       <c r="H9">
-        <v>0.001119147370838514</v>
+        <v>0.001397004538273849</v>
       </c>
       <c r="I9">
-        <v>0.001147323950968726</v>
+        <v>0.001789825697100511</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3256506031285404</v>
+        <v>0.2794679465993646</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1428178354170875</v>
       </c>
       <c r="M9">
-        <v>1.092250818351573</v>
+        <v>0.0768413375289505</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7468907975847827</v>
+        <v>1.088851486466382</v>
       </c>
       <c r="P9">
-        <v>0.7681764352706386</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.65562451243207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7457351509038403</v>
+      </c>
+      <c r="R9">
+        <v>0.7337006997323225</v>
+      </c>
+      <c r="S9">
+        <v>1.458480988296628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.141970063155213</v>
+        <v>1.06501112439534</v>
       </c>
       <c r="C10">
-        <v>0.2339609883609342</v>
+        <v>0.2617461253264253</v>
       </c>
       <c r="D10">
-        <v>0.09928875272292004</v>
+        <v>0.1080092777335722</v>
       </c>
       <c r="E10">
-        <v>0.5096941662023369</v>
+        <v>0.5156123562521273</v>
       </c>
       <c r="F10">
-        <v>0.6228359213908163</v>
+        <v>0.5452277298986488</v>
       </c>
       <c r="G10">
-        <v>0.0007991465178781115</v>
+        <v>0.009723148009962657</v>
       </c>
       <c r="H10">
-        <v>0.002895389813307059</v>
+        <v>0.003140720662245577</v>
       </c>
       <c r="I10">
-        <v>0.00247366278301886</v>
+        <v>0.003148375581301543</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3292813058685731</v>
+        <v>0.2734587343652493</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1332290895755825</v>
       </c>
       <c r="M10">
-        <v>1.291733848318728</v>
+        <v>0.08376989393987699</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8540087738535433</v>
+        <v>1.270382851327611</v>
       </c>
       <c r="P10">
-        <v>0.7218661698015576</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.739880209696878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.848889059118541</v>
+      </c>
+      <c r="R10">
+        <v>0.6954635564718394</v>
+      </c>
+      <c r="S10">
+        <v>1.481684955867934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.225522513007263</v>
+        <v>1.13218960154677</v>
       </c>
       <c r="C11">
-        <v>0.2435453926181879</v>
+        <v>0.2587418516036024</v>
       </c>
       <c r="D11">
-        <v>0.1143732318648816</v>
+        <v>0.1293532793738734</v>
       </c>
       <c r="E11">
-        <v>0.2862037179423851</v>
+        <v>0.2927608554167023</v>
       </c>
       <c r="F11">
-        <v>0.5866282323203151</v>
+        <v>0.4838960920212969</v>
       </c>
       <c r="G11">
-        <v>0.0007979817451564387</v>
+        <v>0.04359176204234672</v>
       </c>
       <c r="H11">
-        <v>0.02083770888790326</v>
+        <v>0.02096889190426054</v>
       </c>
       <c r="I11">
-        <v>0.003402824340109412</v>
+        <v>0.004061959967325279</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.299682052734493</v>
+        <v>0.2367304212949293</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1176176276453642</v>
       </c>
       <c r="M11">
-        <v>1.376786972086279</v>
+        <v>0.0728796119048809</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6494994610529403</v>
+        <v>1.323756100165241</v>
       </c>
       <c r="P11">
-        <v>0.6994542757288844</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.592920821139415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6389636990297873</v>
+      </c>
+      <c r="R11">
+        <v>0.6915095325000173</v>
+      </c>
+      <c r="S11">
+        <v>1.264184938997886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.26235683807397</v>
+        <v>1.164088640451155</v>
       </c>
       <c r="C12">
-        <v>0.2427504502193614</v>
+        <v>0.2505511304382964</v>
       </c>
       <c r="D12">
-        <v>0.1244678196707554</v>
+        <v>0.1426996894012689</v>
       </c>
       <c r="E12">
-        <v>0.1445422489044077</v>
+        <v>0.1499553821493649</v>
       </c>
       <c r="F12">
-        <v>0.548101765699073</v>
+        <v>0.4383902381440947</v>
       </c>
       <c r="G12">
-        <v>0.0007977726837179452</v>
+        <v>0.06802483763088674</v>
       </c>
       <c r="H12">
-        <v>0.05898219362659773</v>
+        <v>0.05907433886944347</v>
       </c>
       <c r="I12">
-        <v>0.003488706867405433</v>
+        <v>0.004104512754030232</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2764342839412421</v>
+        <v>0.2140002843590132</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1091777144601966</v>
       </c>
       <c r="M12">
-        <v>1.406659913658842</v>
+        <v>0.06466734539236896</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4798330075482511</v>
+        <v>1.338959877866358</v>
       </c>
       <c r="P12">
-        <v>0.6967192253682519</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.460989202210982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4684210010306913</v>
+      </c>
+      <c r="R12">
+        <v>0.7050223178067938</v>
+      </c>
+      <c r="S12">
+        <v>1.118067585271888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.261743296826666</v>
+        <v>1.170494993977371</v>
       </c>
       <c r="C13">
-        <v>0.2356344342497891</v>
+        <v>0.2418639580965589</v>
       </c>
       <c r="D13">
-        <v>0.1314585091689082</v>
+        <v>0.1492238800877601</v>
       </c>
       <c r="E13">
-        <v>0.05716689068357184</v>
+        <v>0.06053592327769053</v>
       </c>
       <c r="F13">
-        <v>0.5034357805704488</v>
+        <v>0.4041701372745266</v>
       </c>
       <c r="G13">
-        <v>0.0007983048428364124</v>
+        <v>0.06221613915716517</v>
       </c>
       <c r="H13">
-        <v>0.1142202300805479</v>
+        <v>0.1143139015831736</v>
       </c>
       <c r="I13">
-        <v>0.003248678400856519</v>
+        <v>0.00389155852042844</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2549829486596771</v>
+        <v>0.1999170540188118</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1047800483837786</v>
       </c>
       <c r="M13">
-        <v>1.395354630840643</v>
+        <v>0.05826261260003029</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3278931337663877</v>
+        <v>1.331634925032887</v>
       </c>
       <c r="P13">
-        <v>0.7075504500901921</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.326086176755496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3189202997842813</v>
+      </c>
+      <c r="R13">
+        <v>0.7248784257881624</v>
+      </c>
+      <c r="S13">
+        <v>1.020135226675933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.243685550827905</v>
+        <v>1.16271123327877</v>
       </c>
       <c r="C14">
-        <v>0.2281719449078281</v>
+        <v>0.2357182733811101</v>
       </c>
       <c r="D14">
-        <v>0.1350123958213914</v>
+        <v>0.150670770231784</v>
       </c>
       <c r="E14">
-        <v>0.02817013736279694</v>
+        <v>0.03022283333400466</v>
       </c>
       <c r="F14">
-        <v>0.4693596000133269</v>
+        <v>0.3841473631391423</v>
       </c>
       <c r="G14">
-        <v>0.0007990087724604189</v>
+        <v>0.04559412849576461</v>
       </c>
       <c r="H14">
-        <v>0.1632444803403956</v>
+        <v>0.163348191569554</v>
       </c>
       <c r="I14">
-        <v>0.003024133184315936</v>
+        <v>0.003723989056291899</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2407351158657356</v>
+        <v>0.1931740912965445</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1031070252881143</v>
       </c>
       <c r="M14">
-        <v>1.368800244110048</v>
+        <v>0.05442939234550792</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2338343583219817</v>
+        <v>1.316042479484878</v>
       </c>
       <c r="P14">
-        <v>0.7217689111925338</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.230431027798474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2274024065541127</v>
+      </c>
+      <c r="R14">
+        <v>0.7402182415144409</v>
+      </c>
+      <c r="S14">
+        <v>0.9689249548867025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.230334652706773</v>
+        <v>1.154205355340537</v>
       </c>
       <c r="C15">
-        <v>0.2254487609954481</v>
+        <v>0.234329780411116</v>
       </c>
       <c r="D15">
-        <v>0.1352115902215303</v>
+        <v>0.1496000570161726</v>
       </c>
       <c r="E15">
-        <v>0.02530333765813308</v>
+        <v>0.02713330033553629</v>
       </c>
       <c r="F15">
-        <v>0.459326680814037</v>
+        <v>0.3804251279523498</v>
       </c>
       <c r="G15">
-        <v>0.0007993558021474732</v>
+        <v>0.03718547294142738</v>
       </c>
       <c r="H15">
-        <v>0.1756404116597139</v>
+        <v>0.1757492382499493</v>
       </c>
       <c r="I15">
-        <v>0.003010876755516811</v>
+        <v>0.003756027794036498</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2372487432800412</v>
+        <v>0.1925594784639451</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1032085938860874</v>
       </c>
       <c r="M15">
-        <v>1.353502170991305</v>
+        <v>0.05362524463135365</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2116464136430629</v>
+        <v>1.306918908166892</v>
       </c>
       <c r="P15">
-        <v>0.7273972427677862</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.204904006401932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.206150553481411</v>
+      </c>
+      <c r="R15">
+        <v>0.7439539096424994</v>
+      </c>
+      <c r="S15">
+        <v>0.9621936196748067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.152309835103125</v>
+        <v>1.095680966629772</v>
       </c>
       <c r="C16">
-        <v>0.2131768689592377</v>
+        <v>0.2301617304557055</v>
       </c>
       <c r="D16">
-        <v>0.1276626557987299</v>
+        <v>0.1359176066399783</v>
       </c>
       <c r="E16">
-        <v>0.02527398699137096</v>
+        <v>0.02760415345574585</v>
       </c>
       <c r="F16">
-        <v>0.4468593808261403</v>
+        <v>0.3923191332990612</v>
       </c>
       <c r="G16">
-        <v>0.0008010510620807318</v>
+        <v>0.009131973258979187</v>
       </c>
       <c r="H16">
-        <v>0.1624261402580913</v>
+        <v>0.1625471386045518</v>
       </c>
       <c r="I16">
-        <v>0.002562319357859444</v>
+        <v>0.003401499077869907</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2394048260469646</v>
+        <v>0.2035555294910267</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1087420862352655</v>
       </c>
       <c r="M16">
-        <v>1.269750479202372</v>
+        <v>0.05518632254683986</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.201483256961744</v>
+        <v>1.252025925851427</v>
       </c>
       <c r="P16">
-        <v>0.7424439938718095</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.194198489794957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1990620651820727</v>
+      </c>
+      <c r="R16">
+        <v>0.7422722180801102</v>
+      </c>
+      <c r="S16">
+        <v>1.019611976441382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.102107721450153</v>
+        <v>1.052920527666117</v>
       </c>
       <c r="C17">
-        <v>0.2077821291433821</v>
+        <v>0.2289367135158358</v>
       </c>
       <c r="D17">
-        <v>0.1200096808016724</v>
+        <v>0.125652284165227</v>
       </c>
       <c r="E17">
-        <v>0.03518983065677173</v>
+        <v>0.03805870357855667</v>
       </c>
       <c r="F17">
-        <v>0.4553315690559998</v>
+        <v>0.4097488459891281</v>
       </c>
       <c r="G17">
-        <v>0.0008019879689652454</v>
+        <v>0.003285906048466458</v>
       </c>
       <c r="H17">
-        <v>0.1244277830497822</v>
+        <v>0.1245485182102897</v>
       </c>
       <c r="I17">
-        <v>0.002375953275881137</v>
+        <v>0.00324221969820826</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2485429433422155</v>
+        <v>0.2150744707905972</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1140502463354895</v>
       </c>
       <c r="M17">
-        <v>1.219750809850581</v>
+        <v>0.05796276857680915</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2405210884799551</v>
+        <v>1.214340363102451</v>
       </c>
       <c r="P17">
-        <v>0.7464681679053058</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.236400279857847</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2393387883627653</v>
+      </c>
+      <c r="R17">
+        <v>0.7371319752552132</v>
+      </c>
+      <c r="S17">
+        <v>1.085571175846951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.072037632859349</v>
+        <v>1.023542486445933</v>
       </c>
       <c r="C18">
-        <v>0.2067625730292093</v>
+        <v>0.2311678297383253</v>
       </c>
       <c r="D18">
-        <v>0.1114315399660342</v>
+        <v>0.1160567507874362</v>
       </c>
       <c r="E18">
-        <v>0.08238594971662394</v>
+        <v>0.08576122688313959</v>
       </c>
       <c r="F18">
-        <v>0.4840126082756413</v>
+        <v>0.4397918247210555</v>
       </c>
       <c r="G18">
-        <v>0.0008023153941925133</v>
+        <v>0.001951959744415976</v>
       </c>
       <c r="H18">
-        <v>0.07163425858891515</v>
+        <v>0.07177439112548001</v>
       </c>
       <c r="I18">
-        <v>0.002087162968582135</v>
+        <v>0.002914199998189204</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2659100925438693</v>
+        <v>0.231139111785879</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1206993648511645</v>
       </c>
       <c r="M18">
-        <v>1.193086400235444</v>
+        <v>0.06315306751985972</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3392719019371739</v>
+        <v>1.192688130540063</v>
       </c>
       <c r="P18">
-        <v>0.7439701971703307</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.333876810581302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3386850919081112</v>
+      </c>
+      <c r="R18">
+        <v>0.7280806151186816</v>
+      </c>
+      <c r="S18">
+        <v>1.184432263666309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.056342207966367</v>
+        <v>1.004410868706657</v>
       </c>
       <c r="C19">
-        <v>0.2114736164960789</v>
+        <v>0.239208046089729</v>
       </c>
       <c r="D19">
-        <v>0.1033976307843716</v>
+        <v>0.107881814708513</v>
       </c>
       <c r="E19">
-        <v>0.1978977325744964</v>
+        <v>0.2017745546170175</v>
       </c>
       <c r="F19">
-        <v>0.5254820766158588</v>
+        <v>0.4782552039469934</v>
       </c>
       <c r="G19">
-        <v>0.0008020856535093224</v>
+        <v>0.001603987022774422</v>
       </c>
       <c r="H19">
-        <v>0.02676913827595229</v>
+        <v>0.02696103796925087</v>
       </c>
       <c r="I19">
-        <v>0.002250922725479221</v>
+        <v>0.003107714894936109</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2879111975995237</v>
+        <v>0.2496358173727558</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1278489615121963</v>
       </c>
       <c r="M19">
-        <v>1.186948639238153</v>
+        <v>0.06991478055354605</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4991708480736321</v>
+        <v>1.187618075067718</v>
       </c>
       <c r="P19">
-        <v>0.7408672036285608</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.466119111964389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4988197947557822</v>
+      </c>
+      <c r="R19">
+        <v>0.7195717212888901</v>
+      </c>
+      <c r="S19">
+        <v>1.305057173033049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.088767826369008</v>
+        <v>1.02235259862826</v>
       </c>
       <c r="C20">
-        <v>0.2284954730315718</v>
+        <v>0.2596945638253771</v>
       </c>
       <c r="D20">
-        <v>0.09624643852216508</v>
+        <v>0.1025333980428726</v>
       </c>
       <c r="E20">
-        <v>0.4955978115529405</v>
+        <v>0.500625308122828</v>
       </c>
       <c r="F20">
-        <v>0.6054887230119519</v>
+        <v>0.54236272408302</v>
       </c>
       <c r="G20">
-        <v>0.0008002830742410591</v>
+        <v>0.003186829912809053</v>
       </c>
       <c r="H20">
-        <v>0.00233247423054328</v>
+        <v>0.002614374943118669</v>
       </c>
       <c r="I20">
-        <v>0.002786977945998359</v>
+        <v>0.003651116301509383</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3248512183003953</v>
+        <v>0.2758716786141555</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1359686439378365</v>
       </c>
       <c r="M20">
-        <v>1.238979369927421</v>
+        <v>0.08219814479087972</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8244831432461694</v>
+        <v>1.230851371498204</v>
       </c>
       <c r="P20">
-        <v>0.7330234642629176</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.703281893905171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8223570152280857</v>
+      </c>
+      <c r="R20">
+        <v>0.7052108725372737</v>
+      </c>
+      <c r="S20">
+        <v>1.489922718547746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.225046629438623</v>
+        <v>1.118062674842179</v>
       </c>
       <c r="C21">
-        <v>0.2552766839495888</v>
+        <v>0.2698072538979375</v>
       </c>
       <c r="D21">
-        <v>0.1053014922945081</v>
+        <v>0.1222095389367013</v>
       </c>
       <c r="E21">
-        <v>0.5839233354676878</v>
+        <v>0.5940089230800254</v>
       </c>
       <c r="F21">
-        <v>0.6549829378577954</v>
+        <v>0.5290499659986807</v>
       </c>
       <c r="G21">
-        <v>0.0007969681385953742</v>
+        <v>0.06463401649728695</v>
       </c>
       <c r="H21">
-        <v>0.004094838744986173</v>
+        <v>0.004203514347601356</v>
       </c>
       <c r="I21">
-        <v>0.004018479910913086</v>
+        <v>0.004633887412357929</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3341652189372937</v>
+        <v>0.2567045625443747</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1240764197588433</v>
       </c>
       <c r="M21">
-        <v>1.393230808668278</v>
+        <v>0.08180341540642999</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9553747030533941</v>
+        <v>1.326559460217226</v>
       </c>
       <c r="P21">
-        <v>0.6999522473929112</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.805960886536695</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9395531719372769</v>
+      </c>
+      <c r="R21">
+        <v>0.6781325919801553</v>
+      </c>
+      <c r="S21">
+        <v>1.398296241631016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.317021718137283</v>
+        <v>1.181532479297687</v>
       </c>
       <c r="C22">
-        <v>0.2711160958787815</v>
+        <v>0.2733209001442134</v>
       </c>
       <c r="D22">
-        <v>0.1114795265836293</v>
+        <v>0.1363403548200353</v>
       </c>
       <c r="E22">
-        <v>0.6248979908860548</v>
+        <v>0.6388759206732004</v>
       </c>
       <c r="F22">
-        <v>0.6862279744991753</v>
+        <v>0.5162626790111418</v>
       </c>
       <c r="G22">
-        <v>0.000794876610794104</v>
+        <v>0.1538221979053844</v>
       </c>
       <c r="H22">
-        <v>0.005455262311722997</v>
+        <v>0.005392471894367978</v>
       </c>
       <c r="I22">
-        <v>0.004728838729894491</v>
+        <v>0.005027934692314773</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3400237639293309</v>
+        <v>0.2430744947926797</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1165603491907738</v>
       </c>
       <c r="M22">
-        <v>1.493993200896995</v>
+        <v>0.08089675896850324</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.025185147789067</v>
+        <v>1.385101772454533</v>
       </c>
       <c r="P22">
-        <v>0.6787841806466077</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.869311491770645</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.9993350791153048</v>
+      </c>
+      <c r="R22">
+        <v>0.6641485913912959</v>
+      </c>
+      <c r="S22">
+        <v>1.327278189988817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.270475525557288</v>
+        <v>1.153047945987993</v>
       </c>
       <c r="C23">
-        <v>0.2613222709932472</v>
+        <v>0.2725184270423711</v>
       </c>
       <c r="D23">
-        <v>0.1079732476954689</v>
+        <v>0.1274530950496882</v>
       </c>
       <c r="E23">
-        <v>0.6030379968375286</v>
+        <v>0.6142153645900095</v>
       </c>
       <c r="F23">
-        <v>0.6710378754857587</v>
+        <v>0.5305242123150649</v>
       </c>
       <c r="G23">
-        <v>0.0007959752973996488</v>
+        <v>0.08789726563307454</v>
       </c>
       <c r="H23">
-        <v>0.004711881620491076</v>
+        <v>0.004757264402411643</v>
       </c>
       <c r="I23">
-        <v>0.004052304203210788</v>
+        <v>0.004483261594680599</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3381098694281519</v>
+        <v>0.2538959715672355</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1216725401306071</v>
       </c>
       <c r="M23">
-        <v>1.440329752574627</v>
+        <v>0.08292323227156473</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.987943702593121</v>
+        <v>1.360130698661663</v>
       </c>
       <c r="P23">
-        <v>0.6902928759294429</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.840314475566146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9689295028396501</v>
+      </c>
+      <c r="R23">
+        <v>0.6705675932517536</v>
+      </c>
+      <c r="S23">
+        <v>1.387975437750868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.089834588331257</v>
+        <v>1.023183997894478</v>
       </c>
       <c r="C24">
-        <v>0.2267489492147234</v>
+        <v>0.2582018453807962</v>
       </c>
       <c r="D24">
-        <v>0.09504663147771453</v>
+        <v>0.1012234163189021</v>
       </c>
       <c r="E24">
-        <v>0.5204449646379175</v>
+        <v>0.5254974230846443</v>
       </c>
       <c r="F24">
-        <v>0.6122878307140809</v>
+        <v>0.5490458970851293</v>
       </c>
       <c r="G24">
-        <v>0.0008002466701593444</v>
+        <v>0.002992573810233878</v>
       </c>
       <c r="H24">
-        <v>0.002342350842440277</v>
+        <v>0.002631909243871577</v>
       </c>
       <c r="I24">
-        <v>0.002332651346260484</v>
+        <v>0.003102385790910489</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3293934656654933</v>
+        <v>0.2799268962720234</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1375384317741144</v>
       </c>
       <c r="M24">
-        <v>1.237165793563975</v>
+        <v>0.08367790537198516</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8471987483069583</v>
+        <v>1.229489615784246</v>
       </c>
       <c r="P24">
-        <v>0.7346592296764529</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.725986784042504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8451635241419808</v>
+      </c>
+      <c r="R24">
+        <v>0.7056985139762864</v>
+      </c>
+      <c r="S24">
+        <v>1.511808883311744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8944925007197071</v>
+        <v>0.8489980126115881</v>
       </c>
       <c r="C25">
-        <v>0.1900539931368712</v>
+        <v>0.2150156242511798</v>
       </c>
       <c r="D25">
-        <v>0.08110448154415906</v>
+        <v>0.08434997391461252</v>
       </c>
       <c r="E25">
-        <v>0.4316989750470555</v>
+        <v>0.4374418962961713</v>
       </c>
       <c r="F25">
-        <v>0.5514496606882631</v>
+        <v>0.5005395163408934</v>
       </c>
       <c r="G25">
-        <v>0.0008050506205890502</v>
+        <v>0.002980903072232532</v>
       </c>
       <c r="H25">
-        <v>0.0006545273193898637</v>
+        <v>0.0009060918556289543</v>
       </c>
       <c r="I25">
-        <v>0.001280279049856503</v>
+        <v>0.001934085228549876</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3211035146443635</v>
+        <v>0.2780889050884952</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1451115627544617</v>
       </c>
       <c r="M25">
-        <v>1.018389430773567</v>
+        <v>0.07326628967239657</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6959452564149515</v>
+        <v>1.019772963578419</v>
       </c>
       <c r="P25">
-        <v>0.7849114796223413</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.609762555450146</v>
+        <v>0.6958296680390319</v>
+      </c>
+      <c r="R25">
+        <v>0.7482686308363888</v>
+      </c>
+      <c r="S25">
+        <v>1.430539897874041</v>
       </c>
     </row>
   </sheetData>
